--- a/tree_data.xlsx
+++ b/tree_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>sl no</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>Ficus benghalensis</t>
+  </si>
+  <si>
+    <t>Switenia macrophylla</t>
+  </si>
+  <si>
+    <t>Simarouba glouca</t>
+  </si>
+  <si>
+    <t>Muntingia calabura</t>
+  </si>
+  <si>
+    <t>Terminalia catappa</t>
+  </si>
+  <si>
+    <t>Tabebuia rosea</t>
+  </si>
+  <si>
+    <t>Melia dubia</t>
+  </si>
+  <si>
+    <t>Punica granatum</t>
+  </si>
+  <si>
+    <t>Spathodea campanulata</t>
+  </si>
+  <si>
+    <t>Thespesia populnea</t>
+  </si>
+  <si>
+    <t>Ceiba pentandra</t>
+  </si>
+  <si>
+    <t>Ficus benjamina</t>
   </si>
 </sst>
 </file>
@@ -387,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,8 +670,289 @@
         <v>77.500625999999997</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>12.958432</v>
+      </c>
+      <c r="D18">
+        <v>77.528583999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>12.958425999999999</v>
+      </c>
+      <c r="D19">
+        <v>77.528634999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>12.958443000000001</v>
+      </c>
+      <c r="D20">
+        <v>77.528603000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>12.958402</v>
+      </c>
+      <c r="D21">
+        <v>77.528568000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>12.958434</v>
+      </c>
+      <c r="D22">
+        <v>77.528616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>12.958413</v>
+      </c>
+      <c r="D23">
+        <v>77.528628999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>12.958429000000001</v>
+      </c>
+      <c r="D24">
+        <v>77.528600999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>12.958451999999999</v>
+      </c>
+      <c r="D25">
+        <v>77.528659000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>12.958423</v>
+      </c>
+      <c r="D26">
+        <v>77.528659000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>12.958409</v>
+      </c>
+      <c r="D27">
+        <v>77.528609000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>12.958385</v>
+      </c>
+      <c r="D28">
+        <v>77.528737000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>12.958408</v>
+      </c>
+      <c r="D29">
+        <v>77.528681000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>12.958435</v>
+      </c>
+      <c r="D30">
+        <v>77.528654000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>12.958449</v>
+      </c>
+      <c r="D31">
+        <v>77.528594999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>12.958425999999999</v>
+      </c>
+      <c r="D32">
+        <v>77.528595999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>12.958427</v>
+      </c>
+      <c r="D33">
+        <v>77.528575000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>12.95842</v>
+      </c>
+      <c r="D34">
+        <v>77.528634999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>12.958434</v>
+      </c>
+      <c r="D35">
+        <v>77.528513000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>12.958456999999999</v>
+      </c>
+      <c r="D36">
+        <v>77.528503999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>12.958466</v>
+      </c>
+      <c r="D37">
+        <v>77.528524000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tree_data.xlsx
+++ b/tree_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>sl no</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Ficus benjamina</t>
+  </si>
+  <si>
+    <t>Ficus mysorensis</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +951,62 @@
       </c>
       <c r="D37">
         <v>77.528524000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>12.959992</v>
+      </c>
+      <c r="D38">
+        <v>77.525756000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>12.960027999999999</v>
+      </c>
+      <c r="D39">
+        <v>77.525692000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>12.951421</v>
+      </c>
+      <c r="D40">
+        <v>77.500511000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>12.951354</v>
+      </c>
+      <c r="D41">
+        <v>77.500489000000002</v>
       </c>
     </row>
   </sheetData>
